--- a/20 開発資料/02.画面設計/画面一覧.xlsx
+++ b/20 開発資料/02.画面設計/画面一覧.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="126">
   <si>
     <t>章番</t>
     <rPh sb="0" eb="1">
@@ -818,13 +818,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>取込ログ</t>
-    <rPh sb="0" eb="2">
-      <t>トリコミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>操作ログ</t>
     <rPh sb="0" eb="2">
       <t>ソウサ</t>
@@ -882,21 +875,6 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>ogTorikomi</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
       <t>ogSousa</t>
     </r>
     <phoneticPr fontId="2"/>
@@ -913,16 +891,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>取込ログ参照</t>
-    <rPh sb="0" eb="2">
-      <t>トリコミ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>操作ログ参照</t>
     <rPh sb="0" eb="2">
       <t>ソウサ</t>
@@ -1026,10 +994,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>/admin/LogTorikomi.aspx</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>/admin/LogSousa.aspx</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1200,6 +1164,24 @@
   </si>
   <si>
     <t>31</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>送受信ログ照会</t>
+    <rPh sb="0" eb="3">
+      <t>ソウジュシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LogFile</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/admin/LogFile.aspx</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1207,7 +1189,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ ゴシック"/>
@@ -1504,6 +1486,9 @@
     <xf numFmtId="0" fontId="5" fillId="1" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1621,9 +1606,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1930,215 +1912,215 @@
   <dimension ref="A1:AZ41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:B24"/>
+      <selection activeCell="A28" sqref="A28:B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A1" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="32" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="42" t="s">
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="32" t="s">
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="33" t="s">
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="37"/>
-      <c r="AR1" s="37"/>
-      <c r="AS1" s="37"/>
-      <c r="AT1" s="37"/>
-      <c r="AU1" s="37"/>
-      <c r="AV1" s="37"/>
-      <c r="AW1" s="37"/>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="37"/>
-      <c r="AZ1" s="38"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="38"/>
+      <c r="AV1" s="38"/>
+      <c r="AW1" s="38"/>
+      <c r="AX1" s="38"/>
+      <c r="AY1" s="38"/>
+      <c r="AZ1" s="39"/>
     </row>
-    <row r="2" spans="1:52">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="39" t="s">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="42" t="s">
+      <c r="J2" s="41"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="39" t="s">
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="33" t="s">
+      <c r="Q2" s="41"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="32" t="s">
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="45">
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="46">
         <v>41534</v>
       </c>
-      <c r="AN2" s="46"/>
-      <c r="AO2" s="46"/>
-      <c r="AP2" s="46"/>
-      <c r="AQ2" s="47"/>
-      <c r="AR2" s="32" t="s">
+      <c r="AN2" s="47"/>
+      <c r="AO2" s="47"/>
+      <c r="AP2" s="47"/>
+      <c r="AQ2" s="48"/>
+      <c r="AR2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="32"/>
-      <c r="AU2" s="50" t="s">
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="AV2" s="50"/>
-      <c r="AW2" s="50"/>
-      <c r="AX2" s="50"/>
-      <c r="AY2" s="50"/>
-      <c r="AZ2" s="50"/>
+      <c r="AV2" s="51"/>
+      <c r="AW2" s="51"/>
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
     </row>
-    <row r="3" spans="1:52">
-      <c r="A3" s="60"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="32" t="s">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="32" t="s">
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="52"/>
-      <c r="AH3" s="52"/>
-      <c r="AI3" s="53"/>
-      <c r="AJ3" s="32" t="s">
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="AK3" s="32"/>
-      <c r="AL3" s="32"/>
-      <c r="AM3" s="45">
+      <c r="AK3" s="33"/>
+      <c r="AL3" s="33"/>
+      <c r="AM3" s="46">
         <v>41548</v>
       </c>
-      <c r="AN3" s="46"/>
-      <c r="AO3" s="46"/>
-      <c r="AP3" s="46"/>
-      <c r="AQ3" s="47"/>
-      <c r="AR3" s="32" t="s">
+      <c r="AN3" s="47"/>
+      <c r="AO3" s="47"/>
+      <c r="AP3" s="47"/>
+      <c r="AQ3" s="48"/>
+      <c r="AR3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="AS3" s="32"/>
-      <c r="AT3" s="32"/>
-      <c r="AU3" s="50" t="s">
+      <c r="AS3" s="33"/>
+      <c r="AT3" s="33"/>
+      <c r="AU3" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="AV3" s="50"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
+      <c r="AV3" s="51"/>
+      <c r="AW3" s="51"/>
+      <c r="AX3" s="51"/>
+      <c r="AY3" s="51"/>
+      <c r="AZ3" s="51"/>
     </row>
-    <row r="5" spans="1:52">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -2202,7 +2184,7 @@
       <c r="AY5" s="4"/>
       <c r="AZ5" s="3"/>
     </row>
-    <row r="6" spans="1:52">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <f>ROW()-5</f>
         <v>1</v>
@@ -2267,7 +2249,7 @@
       <c r="AY6" s="9"/>
       <c r="AZ6" s="10"/>
     </row>
-    <row r="7" spans="1:52">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <f>ROW()-5</f>
         <v>2</v>
@@ -2332,7 +2314,7 @@
       <c r="AY7" s="9"/>
       <c r="AZ7" s="10"/>
     </row>
-    <row r="8" spans="1:52">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
         <v>28</v>
       </c>
@@ -2388,7 +2370,7 @@
       <c r="AY8" s="15"/>
       <c r="AZ8" s="16"/>
     </row>
-    <row r="9" spans="1:52">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <f>ROW()-6</f>
         <v>3</v>
@@ -2453,7 +2435,7 @@
       <c r="AY9" s="9"/>
       <c r="AZ9" s="10"/>
     </row>
-    <row r="10" spans="1:52">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <f t="shared" ref="A10:A11" si="0">ROW()-6</f>
         <v>4</v>
@@ -2518,7 +2500,7 @@
       <c r="AY10" s="9"/>
       <c r="AZ10" s="10"/>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2583,7 +2565,7 @@
       <c r="AY11" s="9"/>
       <c r="AZ11" s="10"/>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A12" s="26">
         <f>ROW()-6</f>
         <v>6</v>
@@ -2596,21 +2578,21 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
       <c r="I12" s="25"/>
-      <c r="J12" s="29" t="s">
+      <c r="J12" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="32"/>
       <c r="W12" s="23"/>
       <c r="X12" s="24"/>
       <c r="Y12" s="24"/>
@@ -2644,7 +2626,7 @@
       <c r="AY12" s="21"/>
       <c r="AZ12" s="22"/>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A13" s="14" t="s">
         <v>35</v>
       </c>
@@ -2700,9 +2682,9 @@
       <c r="AY13" s="15"/>
       <c r="AZ13" s="16"/>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
-        <f t="shared" ref="A14:A24" si="1">ROW()-7</f>
+        <f t="shared" ref="A14:A23" si="1">ROW()-7</f>
         <v>7</v>
       </c>
       <c r="B14" s="7"/>
@@ -2765,7 +2747,7 @@
       <c r="AY14" s="9"/>
       <c r="AZ14" s="10"/>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -2830,7 +2812,7 @@
       <c r="AY15" s="9"/>
       <c r="AZ15" s="10"/>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -2895,7 +2877,7 @@
       <c r="AY16" s="9"/>
       <c r="AZ16" s="10"/>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -2926,7 +2908,7 @@
       <c r="U17" s="11"/>
       <c r="V17" s="12"/>
       <c r="W17" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="X17" s="9"/>
       <c r="Y17" s="9"/>
@@ -2960,7 +2942,7 @@
       <c r="AY17" s="9"/>
       <c r="AZ17" s="10"/>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -2976,7 +2958,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="10"/>
       <c r="J18" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
@@ -2991,7 +2973,7 @@
       <c r="U18" s="11"/>
       <c r="V18" s="12"/>
       <c r="W18" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
@@ -3025,7 +3007,7 @@
       <c r="AY18" s="9"/>
       <c r="AZ18" s="10"/>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -3090,7 +3072,7 @@
       <c r="AY19" s="9"/>
       <c r="AZ19" s="10"/>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -3121,7 +3103,7 @@
       <c r="U20" s="11"/>
       <c r="V20" s="12"/>
       <c r="W20" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="X20" s="9"/>
       <c r="Y20" s="9"/>
@@ -3155,7 +3137,7 @@
       <c r="AY20" s="9"/>
       <c r="AZ20" s="10"/>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -3186,7 +3168,7 @@
       <c r="U21" s="11"/>
       <c r="V21" s="12"/>
       <c r="W21" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="X21" s="18"/>
       <c r="Y21" s="18"/>
@@ -3220,7 +3202,7 @@
       <c r="AY21" s="9"/>
       <c r="AZ21" s="10"/>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -3236,7 +3218,7 @@
       <c r="H22" s="9"/>
       <c r="I22" s="10"/>
       <c r="J22" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
@@ -3251,7 +3233,7 @@
       <c r="U22" s="11"/>
       <c r="V22" s="12"/>
       <c r="W22" s="17" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="X22" s="18"/>
       <c r="Y22" s="18"/>
@@ -3285,7 +3267,7 @@
       <c r="AY22" s="9"/>
       <c r="AZ22" s="10"/>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A23" s="26">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -3298,22 +3280,22 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
       <c r="I23" s="25"/>
-      <c r="J23" s="29" t="s">
+      <c r="J23" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="31"/>
-      <c r="W23" s="29" t="s">
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="30" t="s">
         <v>42</v>
       </c>
       <c r="X23" s="24"/>
@@ -3348,22 +3330,22 @@
       <c r="AY23" s="21"/>
       <c r="AZ23" s="22"/>
     </row>
-    <row r="24" spans="1:52" s="5" customFormat="1">
-      <c r="A24" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="B24" s="28"/>
+    <row r="24" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="29"/>
       <c r="C24" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="49"/>
+        <v>118</v>
+      </c>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="50"/>
       <c r="J24" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
@@ -3378,41 +3360,41 @@
       <c r="U24" s="11"/>
       <c r="V24" s="12"/>
       <c r="W24" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="X24" s="48"/>
-      <c r="Y24" s="48"/>
-      <c r="Z24" s="48"/>
-      <c r="AA24" s="48"/>
-      <c r="AB24" s="48"/>
-      <c r="AC24" s="48"/>
-      <c r="AD24" s="48"/>
-      <c r="AE24" s="48"/>
-      <c r="AF24" s="48"/>
-      <c r="AG24" s="48"/>
-      <c r="AH24" s="48"/>
-      <c r="AI24" s="48"/>
-      <c r="AJ24" s="48"/>
-      <c r="AK24" s="48"/>
-      <c r="AL24" s="48"/>
-      <c r="AM24" s="49"/>
+        <v>120</v>
+      </c>
+      <c r="X24" s="49"/>
+      <c r="Y24" s="49"/>
+      <c r="Z24" s="49"/>
+      <c r="AA24" s="49"/>
+      <c r="AB24" s="49"/>
+      <c r="AC24" s="49"/>
+      <c r="AD24" s="49"/>
+      <c r="AE24" s="49"/>
+      <c r="AF24" s="49"/>
+      <c r="AG24" s="49"/>
+      <c r="AH24" s="49"/>
+      <c r="AI24" s="49"/>
+      <c r="AJ24" s="49"/>
+      <c r="AK24" s="49"/>
+      <c r="AL24" s="49"/>
+      <c r="AM24" s="50"/>
       <c r="AN24" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO24" s="48"/>
-      <c r="AP24" s="48"/>
-      <c r="AQ24" s="48"/>
-      <c r="AR24" s="48"/>
-      <c r="AS24" s="48"/>
-      <c r="AT24" s="48"/>
-      <c r="AU24" s="48"/>
-      <c r="AV24" s="48"/>
-      <c r="AW24" s="48"/>
-      <c r="AX24" s="48"/>
-      <c r="AY24" s="48"/>
-      <c r="AZ24" s="49"/>
+        <v>121</v>
+      </c>
+      <c r="AO24" s="49"/>
+      <c r="AP24" s="49"/>
+      <c r="AQ24" s="49"/>
+      <c r="AR24" s="49"/>
+      <c r="AS24" s="49"/>
+      <c r="AT24" s="49"/>
+      <c r="AU24" s="49"/>
+      <c r="AV24" s="49"/>
+      <c r="AW24" s="49"/>
+      <c r="AX24" s="49"/>
+      <c r="AY24" s="49"/>
+      <c r="AZ24" s="50"/>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A25" s="14" t="s">
         <v>38</v>
       </c>
@@ -3468,14 +3450,14 @@
       <c r="AY25" s="15"/>
       <c r="AZ25" s="16"/>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <f>ROW()-8</f>
         <v>18</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
@@ -3499,7 +3481,7 @@
       <c r="U26" s="11"/>
       <c r="V26" s="12"/>
       <c r="W26" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="X26" s="9"/>
       <c r="Y26" s="9"/>
@@ -3518,7 +3500,7 @@
       <c r="AL26" s="9"/>
       <c r="AM26" s="10"/>
       <c r="AN26" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AO26" s="9"/>
       <c r="AP26" s="9"/>
@@ -3533,14 +3515,14 @@
       <c r="AY26" s="9"/>
       <c r="AZ26" s="10"/>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <f t="shared" ref="A27:A29" si="2">ROW()-8</f>
         <v>19</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
@@ -3564,7 +3546,7 @@
       <c r="U27" s="11"/>
       <c r="V27" s="12"/>
       <c r="W27" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
@@ -3583,7 +3565,7 @@
       <c r="AL27" s="9"/>
       <c r="AM27" s="10"/>
       <c r="AN27" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AO27" s="9"/>
       <c r="AP27" s="9"/>
@@ -3598,14 +3580,14 @@
       <c r="AY27" s="9"/>
       <c r="AZ27" s="10"/>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="8" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
@@ -3614,7 +3596,7 @@
       <c r="H28" s="9"/>
       <c r="I28" s="10"/>
       <c r="J28" s="8" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
@@ -3629,7 +3611,7 @@
       <c r="U28" s="11"/>
       <c r="V28" s="12"/>
       <c r="W28" s="8" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="X28" s="9"/>
       <c r="Y28" s="9"/>
@@ -3648,7 +3630,7 @@
       <c r="AL28" s="9"/>
       <c r="AM28" s="10"/>
       <c r="AN28" s="8" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="AO28" s="9"/>
       <c r="AP28" s="9"/>
@@ -3663,14 +3645,14 @@
       <c r="AY28" s="9"/>
       <c r="AZ28" s="10"/>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -3679,7 +3661,7 @@
       <c r="H29" s="9"/>
       <c r="I29" s="10"/>
       <c r="J29" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
@@ -3694,7 +3676,7 @@
       <c r="U29" s="11"/>
       <c r="V29" s="12"/>
       <c r="W29" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="X29" s="9"/>
       <c r="Y29" s="9"/>
@@ -3713,7 +3695,7 @@
       <c r="AL29" s="9"/>
       <c r="AM29" s="10"/>
       <c r="AN29" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AO29" s="9"/>
       <c r="AP29" s="9"/>
@@ -3728,9 +3710,9 @@
       <c r="AY29" s="9"/>
       <c r="AZ29" s="10"/>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A30" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -3784,7 +3766,7 @@
       <c r="AY30" s="15"/>
       <c r="AZ30" s="16"/>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <f>ROW()-9</f>
         <v>22</v>
@@ -3798,7 +3780,7 @@
       <c r="H31" s="9"/>
       <c r="I31" s="10"/>
       <c r="J31" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
@@ -3813,7 +3795,7 @@
       <c r="U31" s="11"/>
       <c r="V31" s="12"/>
       <c r="W31" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="X31" s="9"/>
       <c r="Y31" s="9"/>
@@ -3845,7 +3827,7 @@
       <c r="AY31" s="9"/>
       <c r="AZ31" s="10"/>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <f t="shared" ref="A32:A34" si="3">ROW()-9</f>
         <v>23</v>
@@ -3859,7 +3841,7 @@
       <c r="H32" s="9"/>
       <c r="I32" s="10"/>
       <c r="J32" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
@@ -3874,7 +3856,7 @@
       <c r="U32" s="11"/>
       <c r="V32" s="12"/>
       <c r="W32" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X32" s="9"/>
       <c r="Y32" s="9"/>
@@ -3906,7 +3888,7 @@
       <c r="AY32" s="9"/>
       <c r="AZ32" s="10"/>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A33" s="6">
         <f t="shared" si="3"/>
         <v>24</v>
@@ -3920,7 +3902,7 @@
       <c r="H33" s="9"/>
       <c r="I33" s="10"/>
       <c r="J33" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
@@ -3935,7 +3917,7 @@
       <c r="U33" s="11"/>
       <c r="V33" s="12"/>
       <c r="W33" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="X33" s="9"/>
       <c r="Y33" s="9"/>
@@ -3967,7 +3949,7 @@
       <c r="AY33" s="9"/>
       <c r="AZ33" s="10"/>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A34" s="6">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -3981,7 +3963,7 @@
       <c r="H34" s="9"/>
       <c r="I34" s="10"/>
       <c r="J34" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
@@ -3996,7 +3978,7 @@
       <c r="U34" s="11"/>
       <c r="V34" s="12"/>
       <c r="W34" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="X34" s="9"/>
       <c r="Y34" s="9"/>
@@ -4028,7 +4010,7 @@
       <c r="AY34" s="9"/>
       <c r="AZ34" s="10"/>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A35" s="14" t="s">
         <v>66</v>
       </c>
@@ -4084,7 +4066,7 @@
       <c r="AY35" s="15"/>
       <c r="AZ35" s="16"/>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A36" s="6">
         <f>ROW()-10</f>
         <v>26</v>
@@ -4149,14 +4131,14 @@
       <c r="AY36" s="9"/>
       <c r="AZ36" s="10"/>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A37" s="6">
         <f>ROW()-10</f>
         <v>27</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -4180,7 +4162,7 @@
       <c r="U37" s="11"/>
       <c r="V37" s="12"/>
       <c r="W37" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="X37" s="9"/>
       <c r="Y37" s="9"/>
@@ -4199,7 +4181,7 @@
       <c r="AL37" s="9"/>
       <c r="AM37" s="10"/>
       <c r="AN37" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AO37" s="9"/>
       <c r="AP37" s="9"/>
@@ -4214,7 +4196,7 @@
       <c r="AY37" s="9"/>
       <c r="AZ37" s="10"/>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A38" s="14" t="s">
         <v>50</v>
       </c>
@@ -4270,7 +4252,7 @@
       <c r="AY38" s="15"/>
       <c r="AZ38" s="16"/>
     </row>
-    <row r="39" spans="1:52">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A39" s="6">
         <f>ROW()-11</f>
         <v>28</v>
@@ -4333,7 +4315,7 @@
       <c r="AY39" s="9"/>
       <c r="AZ39" s="10"/>
     </row>
-    <row r="40" spans="1:52">
+    <row r="40" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A40" s="6">
         <f t="shared" ref="A40:A41" si="4">ROW()-11</f>
         <v>29</v>
@@ -4396,7 +4378,7 @@
       <c r="AY40" s="9"/>
       <c r="AZ40" s="10"/>
     </row>
-    <row r="41" spans="1:52">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A41" s="6">
         <f t="shared" si="4"/>
         <v>30</v>
